--- a/Paper-Tracker.xlsx
+++ b/Paper-Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPP-XCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31412A3D-E93D-4277-AA17-3DB0A6744773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997BADB7-437E-4A5F-B030-2B1169F0FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{4ABCC862-C240-41F5-900E-EA4F4584D1C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4ABCC862-C240-41F5-900E-EA4F4584D1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="TPP" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Paper-Tracker.xlsx
+++ b/Paper-Tracker.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TPP-XCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997BADB7-437E-4A5F-B030-2B1169F0FA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD5703-4E5F-418C-ACBF-E94D3A689412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4ABCC862-C240-41F5-900E-EA4F4584D1C0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{4ABCC862-C240-41F5-900E-EA4F4584D1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="TPP" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Paper Name</t>
   </si>
@@ -154,6 +155,72 @@
   </si>
   <si>
     <t>Neural Spatio-Temporal Point Processes</t>
+  </si>
+  <si>
+    <t>20 NIPS User-Dependent Neural Sequence Models for Continuous-Time Event Data</t>
+  </si>
+  <si>
+    <t>Markerless (Hawkes, Self-correcting, Autoregressive conditional duration)</t>
+  </si>
+  <si>
+    <t>NY Taxi, NYSE Financial TxN, MIMIC-2, Stack-Overflow</t>
+  </si>
+  <si>
+    <t>Numerical Integration used</t>
+  </si>
+  <si>
+    <t>Poisson, Hawkes</t>
+  </si>
+  <si>
+    <t>NaN (China Microblogging)</t>
+  </si>
+  <si>
+    <t>NaN (Bank ATM)</t>
+  </si>
+  <si>
+    <t>Retweet(K=3), MemeTrack(K=5000)</t>
+  </si>
+  <si>
+    <t>Retweets</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Markers</t>
+  </si>
+  <si>
+    <t>Max Seq Len</t>
+  </si>
+  <si>
+    <t>Avg Seq Len</t>
+  </si>
+  <si>
+    <t>MemeTrack</t>
+  </si>
+  <si>
+    <t>MIMIC-2</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>NY Stock Exchange</t>
+  </si>
+  <si>
+    <t>Stack-Overflow</t>
+  </si>
+  <si>
+    <t>NY Taxi Dataset</t>
+  </si>
+  <si>
+    <t>Poisson, Self-exciting, Self-correcting, NC2</t>
+  </si>
+  <si>
+    <t>MIMIC-2, Linkedin, IPTV, NYSE</t>
   </si>
 </sst>
 </file>
@@ -516,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CA2C5F-7F65-4B93-97F8-D2D6291182B6}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,6 +641,15 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -588,6 +664,12 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -602,6 +684,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -616,6 +701,9 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -644,6 +732,12 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -829,16 +923,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -846,13 +940,13 @@
         <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,10 +957,10 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,12 +968,26 @@
         <v>2021</v>
       </c>
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -887,4 +995,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8234F7F1-9AE8-47BD-8754-02206D1D3E9C}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>166076</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>42000</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>40000</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>3200</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>6633</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>670000</v>
+      </c>
+      <c r="C8">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>